--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="14100" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12015"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1200021</t>
+    <t>0,1000003</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="16365" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000003</t>
+    <t>0,1000004</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -401,12 +401,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="10890"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000004</t>
+    <t>0,1000005</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000005</t>
+    <t>0,1000004</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -401,12 +401,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000004</t>
+    <t>0,1000005</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000005</t>
+    <t>0,1000006</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000006</t>
+    <t>0,1000007</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000007</t>
+    <t>0,1000003</t>
   </si>
   <si>
     <t>1200021 唐依</t>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="15945" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -220,22 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000003</t>
-  </si>
-  <si>
-    <t>1200021 唐依</t>
-  </si>
-  <si>
-    <t>1000210 刀疤</t>
-  </si>
-  <si>
-    <t>1200001 上官唯</t>
-  </si>
-  <si>
-    <t>1000201 怪物1</t>
-  </si>
-  <si>
-    <t>1000202 怪物2</t>
+    <t>0,1000005</t>
   </si>
 </sst>
 </file>
@@ -401,12 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1232,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2022,30 +2007,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
-      <c r="H28" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
-        <v>57</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="11430"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000005</t>
+    <t>0,1000002</t>
   </si>
 </sst>
 </file>
@@ -386,12 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000002</t>
+    <t>0,1000003</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="22590" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000003</t>
+    <t>0,1000007</t>
   </si>
 </sst>
 </file>
@@ -386,12 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>纯单机测试关卡</t>
   </si>
   <si>
-    <t>0,1000007</t>
+    <t>0,1000001</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="20560" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -226,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1219,11 +1206,11 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1391,7 +1378,7 @@
         <v>10000</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1">
         <v>8001001</v>
@@ -1432,7 +1419,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1">
         <v>8001001</v>
@@ -1473,7 +1460,7 @@
         <v>10000</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1">
         <v>8001001</v>
@@ -1514,7 +1501,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L7" s="1">
         <v>8001001</v>
@@ -1555,7 +1542,7 @@
         <v>10000</v>
       </c>
       <c r="K8" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" s="1">
         <v>8001001</v>
@@ -1607,7 +1594,7 @@
         <v>10000</v>
       </c>
       <c r="K10" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" s="1">
         <v>8001001</v>
@@ -1648,7 +1635,7 @@
         <v>10000</v>
       </c>
       <c r="K11" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="1">
         <v>8001001</v>
@@ -1689,7 +1676,7 @@
         <v>10000</v>
       </c>
       <c r="K12" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L12" s="1">
         <v>8001001</v>
@@ -1741,7 +1728,7 @@
         <v>10000</v>
       </c>
       <c r="K14" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="1">
         <v>8001001</v>
@@ -1782,7 +1769,7 @@
         <v>10000</v>
       </c>
       <c r="K15" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="1">
         <v>8001001</v>
@@ -1823,7 +1810,7 @@
         <v>10000</v>
       </c>
       <c r="K16" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="1">
         <v>8001001</v>
@@ -1875,7 +1862,7 @@
         <v>10000</v>
       </c>
       <c r="K18" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" s="1">
         <v>8002001</v>
@@ -1916,7 +1903,7 @@
         <v>10000</v>
       </c>
       <c r="K23" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L23" s="1">
         <v>8001001</v>
@@ -1957,7 +1944,7 @@
         <v>10000</v>
       </c>
       <c r="K24" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L24" s="1">
         <v>8001001</v>
@@ -1998,7 +1985,7 @@
         <v>120000</v>
       </c>
       <c r="K26" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L26" s="1">
         <v>8001001</v>
@@ -2027,7 +2014,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2044,7 +2031,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/Battle.xlsx
+++ b/data_config/Battle.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20560" windowHeight="10880"/>
+    <workbookView windowWidth="19320" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -75,7 +88,7 @@
     <t>forceUseHeroList</t>
   </si>
   <si>
-    <t>initPos</t>
+    <t>initPos_pre</t>
   </si>
   <si>
     <t>bossLimitTime</t>
@@ -213,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -373,23 +386,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -716,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,16 +759,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,93 +777,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -855,6 +877,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1206,28 +1234,28 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="6" width="25.375" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
-    <col min="9" max="9" width="31.75" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1" customWidth="1"/>
     <col min="10" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="43.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1248,7 +1276,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1257,10 +1285,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1289,7 +1317,7 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
@@ -1298,10 +1326,10 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1309,40 +1337,40 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1353,37 +1381,37 @@
       <c r="B4">
         <v>5001011</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>7900010</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>6001001</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>10000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>101</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>8001001</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1394,37 +1422,37 @@
       <c r="B5">
         <v>5001012</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>7900010</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>6001001</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>10000</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>101</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>8001001</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1435,37 +1463,37 @@
       <c r="B6">
         <v>5001013</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>7900010</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>6001001</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>10000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>101</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>8001001</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1476,37 +1504,37 @@
       <c r="B7">
         <v>5001014</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>7900010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>6001001</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>10000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>101</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>8001001</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1517,50 +1545,50 @@
       <c r="B8">
         <v>5001015</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>7900010</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>6001001</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>101</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>8001001</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -1569,37 +1597,37 @@
       <c r="B10">
         <v>5001021</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>7900010</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>6001001</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>10000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>101</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>8001001</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1610,37 +1638,37 @@
       <c r="B11">
         <v>5001022</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>7900010</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>6001001</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>10000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>101</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>8001001</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1651,50 +1679,50 @@
       <c r="B12">
         <v>5001023</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>7900010</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>6001001</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>10000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>101</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>8001001</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -1703,37 +1731,37 @@
       <c r="B14">
         <v>5001031</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>7900010</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>6001001</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>101</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>8001001</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1744,37 +1772,37 @@
       <c r="B15">
         <v>5001032</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>7900010</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>6001001</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>101</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>8001001</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1785,50 +1813,50 @@
       <c r="B16">
         <v>5001033</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>7900010</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>6001001</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>10000</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>101</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>8001001</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
@@ -1837,37 +1865,37 @@
       <c r="B18">
         <v>5002001</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>7900010</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>6002001</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>101</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>8002001</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1878,37 +1906,37 @@
       <c r="B23">
         <v>5900001</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>7001001</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>6001001</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>10000</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="3">
         <v>101</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>8001001</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1919,37 +1947,37 @@
       <c r="B24">
         <v>5900002</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>7001001</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>6001001</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="3">
         <v>101</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>8001001</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1960,42 +1988,42 @@
       <c r="B26">
         <v>5900010</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>7900010</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>6003001</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <v>120000</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="3">
         <v>101</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>8001001</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="2"/>
+      <c r="H29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2014,7 +2042,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2031,7 +2059,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
